--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_17_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_17_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.200627475431015, 5.633102609643118]</t>
+          <t>[5.200514753266608, 5.633215331807525]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-3.107000542289004, -3.00636894577762]</t>
+          <t>[-3.094421592725082, -3.018947895341542]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.12704193139655828, 0.1651781435307189]</t>
+          <t>[-0.12706097944429295, 0.16519719157845358]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.7938653289418185</v>
+        <v>0.7938915728268325</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7938653289418185</v>
+        <v>0.7938915728268325</v>
       </c>
       <c r="W2" t="n">
         <v>11.13081081081103</v>
       </c>
       <c r="X2" t="n">
-        <v>10.9475875875878</v>
+        <v>10.99339339339361</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.31403403403426</v>
+        <v>11.26822822822845</v>
       </c>
     </row>
   </sheetData>
